--- a/Nova Data_dict_Students.xlsx
+++ b/Nova Data_dict_Students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29725"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\palves\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a82f40c3c4282afc/Ambiente de Trabalho/NOVA IMS/Business Cases/Case 1/BNP-Paribas-main/BNP-Paribas/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD28521-B3D0-42A7-9E74-CC6B4DA6226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{F44BA817-83E8-4B28-B840-7082C63E8482}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F44BA817-83E8-4B28-B840-7082C63E8482}"/>
   </bookViews>
   <sheets>
     <sheet name="BDOSSTOTAL" sheetId="1" r:id="rId1"/>
@@ -1321,7 +1321,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65CA7EAB-37B2-4E01-ACB5-FC44B4B1B688}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2275,7 +2277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EB2CB7-2D97-44E7-9AA2-D6BB8B2F5D98}">
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -2882,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD903F7F-41C9-4E0A-AC58-492487590BE8}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="I22" sqref="I22:I23"/>
     </sheetView>
   </sheetViews>
